--- a/src/analysis_examples/circadb/results_jtk/cosinor_10586993_pygo1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10586993_pygo1_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.14902735615250012, 0.31888645851801317]</t>
+          <t>[0.1500051153574833, 0.31790869931303]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.096947782541768e-05</v>
+        <v>9.414463855383914e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.096947782541768e-05</v>
+        <v>9.414463855383914e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5534737808126158</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.9308422677303092, -0.17610529389492235]</t>
+          <t>[-0.9056843686024632, -0.2012631930227684]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.006082348078724209</v>
+        <v>0.003674394498991873</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006082348078724209</v>
+        <v>0.003674394498991873</v>
       </c>
       <c r="S2" t="n">
         <v>0.4000437080816838</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3554809285801104, 0.44460648758325716]</t>
+          <t>[0.3554173744819931, 0.4446700416813744]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.48769885299771e-14</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48769885299771e-14</v>
+        <v>1.509903313490213e-14</v>
       </c>
       <c r="W2" t="n">
         <v>2.058618618618663</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6550150150150258</v>
+        <v>0.748588588588601</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.4622222222223</v>
+        <v>3.368648648648725</v>
       </c>
     </row>
   </sheetData>
